--- a/meta-data/flux_metadata_15min.xlsx
+++ b/meta-data/flux_metadata_15min.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/AOM-WP1-BL/fluxes/meta-data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/AOM-WP1-BL/meta-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C55793-0942-854A-9058-AA9A9B5B3693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E05CA8-C1F0-9B46-9E08-F2B98196E9B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="17620" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -214,9 +214,6 @@
     <t>uSonic-3 Sonic Anemometer and LI-7500 open path gas analyser</t>
   </si>
   <si>
-    <t>https://github.com/heatherguy/AOM-WP1-BL/tree/main/fluxes</t>
-  </si>
-  <si>
     <t>https://orcid.org/0000-0002-5051-1322</t>
   </si>
   <si>
@@ -227,6 +224,9 @@
   </si>
   <si>
     <t xml:space="preserve">20 Hz sampling rate on both licor and sonic. Runs 15 mins in length. Run time stamp: start of run. </t>
+  </si>
+  <si>
+    <t>https://github.com/heatherguy/AOM-WP1-BL/tree/main/</t>
   </si>
 </sst>
 </file>
@@ -657,7 +657,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B36" sqref="B36"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -760,7 +760,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -858,7 +858,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -874,7 +874,7 @@
         <v>30</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -967,7 +967,7 @@
         <v>42</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -975,7 +975,7 @@
         <v>43</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -3892,8 +3892,9 @@
     <hyperlink ref="B27" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="B10" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="B25" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B13" r:id="rId4" xr:uid="{3156B00F-B0C4-6149-A045-CD90FB2D935B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/meta-data/flux_metadata_15min.xlsx
+++ b/meta-data/flux_metadata_15min.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/AOM-WP1-BL/meta-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E05CA8-C1F0-9B46-9E08-F2B98196E9B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCBE1BD-CEDC-B846-B663-77C7BDD60BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="17620" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
   <si>
     <t>Name</t>
   </si>
@@ -43,12 +43,6 @@
     <t>instrument_serial_number</t>
   </si>
   <si>
-    <t>instrument_software</t>
-  </si>
-  <si>
-    <t>instrument_software_version</t>
-  </si>
-  <si>
     <t>v1</t>
   </si>
   <si>
@@ -73,12 +67,6 @@
     <t>calibration_sensitivity</t>
   </si>
   <si>
-    <t>calibration_certification_date</t>
-  </si>
-  <si>
-    <t>calibration_certification_url</t>
-  </si>
-  <si>
     <t>sampling_interval</t>
   </si>
   <si>
@@ -211,9 +199,6 @@
     <t>CF-1.8</t>
   </si>
   <si>
-    <t>uSonic-3 Sonic Anemometer and LI-7500 open path gas analyser</t>
-  </si>
-  <si>
     <t>https://orcid.org/0000-0002-5051-1322</t>
   </si>
   <si>
@@ -227,6 +212,18 @@
   </si>
   <si>
     <t>https://github.com/heatherguy/AOM-WP1-BL/tree/main/</t>
+  </si>
+  <si>
+    <t>Metek USA-100 sonic anemometer and LI-7500 open path gas analyser</t>
+  </si>
+  <si>
+    <t>Metek USA-100, LI-7500</t>
+  </si>
+  <si>
+    <t>calibration_date</t>
+  </si>
+  <si>
+    <t>Metek field calibration, March 2023</t>
   </si>
 </sst>
 </file>
@@ -324,7 +321,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -366,7 +363,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -651,13 +647,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M1003"/>
+  <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomRight" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -680,7 +676,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -688,7 +684,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -696,14 +692,16 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="9"/>
+      <c r="B5" s="9" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="6" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
@@ -713,38 +711,42 @@
     </row>
     <row r="7" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="9"/>
+        <v>8</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="8" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="9"/>
+        <v>9</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="9" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>46</v>
+      <c r="B9" s="15" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>47</v>
+      <c r="B10" s="9" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>48</v>
+      <c r="B11" s="14" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -752,120 +754,124 @@
         <v>13</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>68</v>
+      <c r="B13" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="9"/>
+        <v>16</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="17" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="17"/>
+        <v>17</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="18" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>51</v>
+        <v>18</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>51</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B19" s="9"/>
     </row>
     <row r="20" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>44</v>
+        <v>20</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>52</v>
+        <v>21</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="9"/>
+        <v>22</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="23" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>54</v>
+        <v>23</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="16" t="s">
-        <v>56</v>
+      <c r="B25" s="13" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="14" t="s">
-        <v>64</v>
+      <c r="B26" s="9" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="9" t="s">
         <v>29</v>
       </c>
     </row>
@@ -873,16 +879,16 @@
       <c r="A28" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>57</v>
+      <c r="B29" s="11" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -890,96 +896,84 @@
         <v>32</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="10"/>
+    </row>
+    <row r="32" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
+      <c r="B32" s="10"/>
+    </row>
+    <row r="33" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="10" t="s">
+      <c r="B33" s="12"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+    </row>
+    <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="10"/>
+      <c r="B34" s="10" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="35" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="10"/>
-    </row>
-    <row r="36" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="5" t="s">
+      <c r="B36" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-    </row>
-    <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="10" t="s">
-        <v>40</v>
-      </c>
       <c r="B37" s="10" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>61</v>
-      </c>
+      <c r="A38" s="7"/>
+      <c r="B38" s="3"/>
     </row>
     <row r="39" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>66</v>
-      </c>
+      <c r="A39" s="2"/>
+      <c r="B39" s="3"/>
     </row>
     <row r="40" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>67</v>
-      </c>
+      <c r="A40" s="2"/>
+      <c r="B40" s="3"/>
     </row>
     <row r="41" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="7"/>
+      <c r="A41" s="2"/>
       <c r="B41" s="3"/>
     </row>
     <row r="42" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -988,11 +982,11 @@
     </row>
     <row r="43" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2"/>
-      <c r="B43" s="3"/>
+      <c r="B43" s="2"/>
     </row>
     <row r="44" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2"/>
-      <c r="B44" s="3"/>
+      <c r="B44" s="2"/>
     </row>
     <row r="45" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2"/>
@@ -1000,18 +994,18 @@
     </row>
     <row r="46" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
+      <c r="B46" s="3"/>
     </row>
     <row r="47" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
+      <c r="B47" s="3"/>
     </row>
     <row r="48" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2"/>
       <c r="B48" s="3"/>
     </row>
     <row r="49" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="2"/>
+      <c r="A49" s="7"/>
       <c r="B49" s="3"/>
     </row>
     <row r="50" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1023,7 +1017,7 @@
       <c r="B51" s="3"/>
     </row>
     <row r="52" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="7"/>
+      <c r="A52" s="2"/>
       <c r="B52" s="3"/>
     </row>
     <row r="53" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1055,15 +1049,12 @@
       <c r="B59" s="3"/>
     </row>
     <row r="60" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="2"/>
       <c r="B60" s="3"/>
     </row>
     <row r="61" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="2"/>
       <c r="B61" s="3"/>
     </row>
     <row r="62" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="2"/>
       <c r="B62" s="3"/>
     </row>
     <row r="63" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -3877,22 +3868,13 @@
     <row r="999" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B999" s="3"/>
     </row>
-    <row r="1000" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1000" s="3"/>
-    </row>
-    <row r="1001" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1001" s="3"/>
-    </row>
-    <row r="1002" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1002" s="3"/>
-    </row>
-    <row r="1003" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1000" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B27" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B10" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B25" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B13" r:id="rId4" xr:uid="{3156B00F-B0C4-6149-A045-CD90FB2D935B}"/>
+    <hyperlink ref="B24" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B8" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B22" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B11" r:id="rId4" xr:uid="{3156B00F-B0C4-6149-A045-CD90FB2D935B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>

--- a/meta-data/flux_metadata_15min.xlsx
+++ b/meta-data/flux_metadata_15min.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/AOM-WP1-BL/meta-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCBE1BD-CEDC-B846-B663-77C7BDD60BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F89041-B6EB-2B4E-A56D-E55AD458F814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="17620" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
   <si>
     <t>Name</t>
   </si>
@@ -224,6 +224,9 @@
   </si>
   <si>
     <t>Metek field calibration, March 2023</t>
+  </si>
+  <si>
+    <t>Metek sonic: 2006 03002/01</t>
   </si>
 </sst>
 </file>
@@ -653,7 +656,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B37" sqref="B37"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -707,7 +710,9 @@
       <c r="A6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="9"/>
+      <c r="B6" s="9" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="7" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">

--- a/meta-data/flux_metadata_15min.xlsx
+++ b/meta-data/flux_metadata_15min.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/AOM-WP1-BL/meta-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F89041-B6EB-2B4E-A56D-E55AD458F814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06F7553-F7B3-0840-B583-0E9A57E628CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="17620" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16660" yWindow="500" windowWidth="17620" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="global-attributes" sheetId="1" r:id="rId1"/>
@@ -223,10 +223,10 @@
     <t>calibration_date</t>
   </si>
   <si>
-    <t>Metek field calibration, March 2023</t>
-  </si>
-  <si>
-    <t>Metek sonic: 2006 03002/01</t>
+    <t>Metek sonic: 2006 03002/01. Li-COR: 75H-0614.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metek field calibration, March 2023. LiCOR internal chemicals changed prior to expedition, no recent absolute calibration. </t>
   </si>
 </sst>
 </file>
@@ -656,7 +656,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -711,7 +711,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -775,7 +775,7 @@
         <v>66</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">

--- a/meta-data/flux_metadata_15min.xlsx
+++ b/meta-data/flux_metadata_15min.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/AOM-WP1-BL/meta-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06F7553-F7B3-0840-B583-0E9A57E628CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12CF0B4D-4EA9-7A45-93D7-596BFA377E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16660" yWindow="500" windowWidth="17620" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/meta-data/flux_metadata_15min.xlsx
+++ b/meta-data/flux_metadata_15min.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/AOM-WP1-BL/meta-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12CF0B4D-4EA9-7A45-93D7-596BFA377E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5152091-E1C2-7245-B141-BDBF3B53FA02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16660" yWindow="500" windowWidth="17620" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -187,9 +187,6 @@
     <t>Flux components and statistical quality checks.</t>
   </si>
   <si>
-    <t>0 m a.s.l</t>
-  </si>
-  <si>
     <t>sea ice</t>
   </si>
   <si>
@@ -227,6 +224,9 @@
   </si>
   <si>
     <t xml:space="preserve">Metek field calibration, March 2023. LiCOR internal chemicals changed prior to expedition, no recent absolute calibration. </t>
+  </si>
+  <si>
+    <t>2 m a.s.l</t>
   </si>
 </sst>
 </file>
@@ -656,7 +656,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomRight" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -679,7 +679,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -687,7 +687,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -703,7 +703,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -711,7 +711,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -751,7 +751,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -772,10 +772,10 @@
     </row>
     <row r="14" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -845,7 +845,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -861,7 +861,7 @@
         <v>26</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -885,7 +885,7 @@
         <v>30</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -938,7 +938,7 @@
         <v>36</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -946,7 +946,7 @@
         <v>37</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -954,7 +954,7 @@
         <v>38</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -962,7 +962,7 @@
         <v>39</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
